--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/CG-Vak Software and Exports Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/CG-Vak Software and Exports Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -618,13 +618,13 @@
         <v>0.01</v>
       </c>
       <c r="N2">
-        <v>1.070625</v>
+        <v>1.07</v>
       </c>
       <c r="O2">
-        <v>-0.02235294117647059</v>
+        <v>-0.02</v>
       </c>
       <c r="P2">
-        <v>0.863157894736842</v>
+        <v>0.86</v>
       </c>
       <c r="Q2">
         <v>0.01</v>
@@ -642,10 +642,10 @@
         <v>-0.02</v>
       </c>
       <c r="V2">
-        <v>0.3558333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="W2">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -692,7 +692,7 @@
         <v>0.01</v>
       </c>
       <c r="O3">
-        <v>-0.02235294117647059</v>
+        <v>-0.02</v>
       </c>
       <c r="P3">
         <v>0.02</v>
@@ -701,22 +701,22 @@
         <v>0.01</v>
       </c>
       <c r="R3">
-        <v>2.436842105263158</v>
+        <v>2.44</v>
       </c>
       <c r="S3">
-        <v>2.436842105263158</v>
+        <v>2.44</v>
       </c>
       <c r="T3">
-        <v>4.826315789473685</v>
+        <v>4.83</v>
       </c>
       <c r="U3">
-        <v>4.826315789473685</v>
+        <v>4.83</v>
       </c>
       <c r="V3">
-        <v>0.3558333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="W3">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -739,7 +739,7 @@
         <v>5.58</v>
       </c>
       <c r="G4">
-        <v>10.77722222222222</v>
+        <v>10.78</v>
       </c>
       <c r="H4">
         <v>0.27</v>
@@ -784,10 +784,10 @@
         <v>0.05</v>
       </c>
       <c r="V4">
-        <v>0.3558333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="W4">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -810,7 +810,7 @@
         <v>5.7</v>
       </c>
       <c r="G5">
-        <v>10.77722222222222</v>
+        <v>10.78</v>
       </c>
       <c r="H5">
         <v>0.33</v>
@@ -831,7 +831,7 @@
         <v>-0.44</v>
       </c>
       <c r="N5">
-        <v>1.070625</v>
+        <v>1.07</v>
       </c>
       <c r="O5">
         <v>0.07000000000000001</v>
@@ -855,10 +855,10 @@
         <v>-1.07</v>
       </c>
       <c r="V5">
-        <v>0.3558333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="W5">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -926,10 +926,10 @@
         <v>0.38</v>
       </c>
       <c r="V6">
-        <v>0.3558333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="W6">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -973,7 +973,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="N7">
-        <v>1.070625</v>
+        <v>1.07</v>
       </c>
       <c r="O7">
         <v>-0.04</v>
@@ -997,10 +997,10 @@
         <v>-1.3</v>
       </c>
       <c r="V7">
-        <v>0.3558333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="W7">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1068,10 +1068,10 @@
         <v>0.22</v>
       </c>
       <c r="V8">
-        <v>0.3558333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="W8">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1115,7 +1115,7 @@
         <v>-1.4</v>
       </c>
       <c r="N9">
-        <v>1.070625</v>
+        <v>1.07</v>
       </c>
       <c r="O9">
         <v>-0.16</v>
@@ -1139,10 +1139,10 @@
         <v>-2.44</v>
       </c>
       <c r="V9">
-        <v>0.3558333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="W9">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1523,7 +1523,7 @@
         <v>10.84</v>
       </c>
       <c r="H15">
-        <v>0.2268421052631579</v>
+        <v>0.23</v>
       </c>
       <c r="I15">
         <v>0.28</v>
@@ -1828,7 +1828,7 @@
         <v>3.03</v>
       </c>
       <c r="O19">
-        <v>-0.02235294117647059</v>
+        <v>-0.02</v>
       </c>
       <c r="P19">
         <v>3.01</v>
